--- a/annexes/conception/dictionnaire_de_donnees_projet_fallout4.xlsx
+++ b/annexes/conception/dictionnaire_de_donnees_projet_fallout4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Nicouleau\Desktop\github\projet_fil_rouge_fallout4\annexes\conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B1BFD-6AC1-4311-BBC2-A00DAE4B8BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{838A332E-9370-447E-94D7-377CDAE27E56}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
   <si>
     <t>projet fil rouge: site d'application compagnon pour le jeu fallout 4 où sont reférencés les armes et équipements uniques du jeu dans des pages articles que l'utilisateur peux ajouter à sa liste de favoris afin d'optimiser son expérience de jeu.</t>
   </si>
@@ -253,12 +252,21 @@
   </si>
   <si>
     <t>set_equipement</t>
+  </si>
+  <si>
+    <t>nom du role</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>nom_role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -408,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +482,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,6 +496,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,18 +809,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F30CDB-D759-446B-9AC4-9001E1EED9AB}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="21" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
   </cols>
@@ -1428,14 +1454,39 @@
         <v>74</v>
       </c>
     </row>
+    <row r="30" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="22">
+        <v>50</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
